--- a/test/商品模板.xlsx
+++ b/test/商品模板.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>商品名称</t>
   </si>
@@ -131,25 +131,52 @@
     <t>分类名称</t>
   </si>
   <si>
+    <t>分类描述</t>
+  </si>
+  <si>
+    <t>测试1</t>
+  </si>
+  <si>
     <t>冷冻鸭产品</t>
   </si>
   <si>
+    <t>测试2</t>
+  </si>
+  <si>
     <t>冷冻猪产品</t>
   </si>
   <si>
+    <t>测试3</t>
+  </si>
+  <si>
     <t>冷冻水产品</t>
   </si>
   <si>
+    <t>测试4</t>
+  </si>
+  <si>
     <t>冷冻牛肉产品</t>
   </si>
   <si>
+    <t>测试5</t>
+  </si>
+  <si>
     <t>冷冻羊肉产品</t>
   </si>
   <si>
+    <t>测试6</t>
+  </si>
+  <si>
     <t>调理油炸产品</t>
   </si>
   <si>
+    <t>测试7</t>
+  </si>
+  <si>
     <t>丸子类</t>
+  </si>
+  <si>
+    <t>测试8</t>
   </si>
 </sst>
 </file>
@@ -157,10 +184,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -172,14 +199,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,123 +319,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,61 +351,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,61 +513,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,55 +531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,30 +542,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -560,6 +563,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -571,6 +583,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,17 +617,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -615,153 +631,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,7 +1118,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1138,196 +1165,268 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1344,60 +1443,87 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="B1" sqref="B1:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="19.8653846153846" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
